--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Mrc1-Ptprc.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Mrc1-Ptprc.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.3561815</v>
+        <v>1.523877</v>
       </c>
       <c r="H2">
-        <v>0.7123630000000001</v>
+        <v>3.047754</v>
       </c>
       <c r="I2">
-        <v>0.001061019652074698</v>
+        <v>0.003628282556780205</v>
       </c>
       <c r="J2">
-        <v>0.0007078316563895001</v>
+        <v>0.002427163257631317</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.10502</v>
+        <v>0.384696</v>
       </c>
       <c r="N2">
-        <v>2.21004</v>
+        <v>0.7693920000000001</v>
       </c>
       <c r="O2">
-        <v>0.001923002024630407</v>
+        <v>0.0003953339325349752</v>
       </c>
       <c r="P2">
-        <v>0.00128282364057296</v>
+        <v>0.000263641226651746</v>
       </c>
       <c r="Q2">
-        <v>0.3935876811300001</v>
+        <v>0.5862293863920001</v>
       </c>
       <c r="R2">
-        <v>1.57435072452</v>
+        <v>2.344917545568</v>
       </c>
       <c r="S2">
-        <v>2.040342939112295E-06</v>
+        <v>1.434383211519973E-06</v>
       </c>
       <c r="T2">
-        <v>9.080231823623669E-07</v>
+        <v>6.399002985259681E-07</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.3561815</v>
+        <v>1.523877</v>
       </c>
       <c r="H3">
-        <v>0.7123630000000001</v>
+        <v>3.047754</v>
       </c>
       <c r="I3">
-        <v>0.001061019652074698</v>
+        <v>0.003628282556780205</v>
       </c>
       <c r="J3">
-        <v>0.0007078316563895001</v>
+        <v>0.002427163257631317</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -629,22 +629,22 @@
         <v>0.016163</v>
       </c>
       <c r="O3">
-        <v>9.37584288794208E-06</v>
+        <v>5.536650889328026E-06</v>
       </c>
       <c r="P3">
-        <v>9.381856664395554E-06</v>
+        <v>5.538442232791829E-06</v>
       </c>
       <c r="Q3">
-        <v>0.001918987194833334</v>
+        <v>0.008210141317</v>
       </c>
       <c r="R3">
-        <v>0.011513923169</v>
+        <v>0.049260847902</v>
       </c>
       <c r="S3">
-        <v>9.947953558871338E-09</v>
+        <v>2.008853384473049E-08</v>
       </c>
       <c r="T3">
-        <v>6.640775142767976E-09</v>
+        <v>1.344270349194588E-08</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.3561815</v>
+        <v>1.523877</v>
       </c>
       <c r="H4">
-        <v>0.7123630000000001</v>
+        <v>3.047754</v>
       </c>
       <c r="I4">
-        <v>0.001061019652074698</v>
+        <v>0.003628282556780205</v>
       </c>
       <c r="J4">
-        <v>0.0007078316563895001</v>
+        <v>0.002427163257631317</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>236.563113</v>
+        <v>272.782435</v>
       </c>
       <c r="N4">
-        <v>709.689339</v>
+        <v>818.347305</v>
       </c>
       <c r="O4">
-        <v>0.4116770241732021</v>
+        <v>0.2803256409087078</v>
       </c>
       <c r="P4">
-        <v>0.4119410786826471</v>
+        <v>0.2804163382480588</v>
       </c>
       <c r="Q4">
-        <v>84.25940443300952</v>
+        <v>415.686878700495</v>
       </c>
       <c r="R4">
-        <v>505.556426598057</v>
+        <v>2494.12127220297</v>
       </c>
       <c r="S4">
-        <v>0.000436797412955398</v>
+        <v>0.001017100633127296</v>
       </c>
       <c r="T4">
-        <v>0.0002915849360588155</v>
+        <v>0.0006806162330352038</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +720,7 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -729,46 +729,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.3561815</v>
+        <v>1.523877</v>
       </c>
       <c r="H5">
-        <v>0.7123630000000001</v>
+        <v>3.047754</v>
       </c>
       <c r="I5">
-        <v>0.001061019652074698</v>
+        <v>0.003628282556780205</v>
       </c>
       <c r="J5">
-        <v>0.0007078316563895001</v>
+        <v>0.002427163257631317</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M5">
-        <v>1.594178</v>
+        <v>0.5595085</v>
       </c>
       <c r="N5">
-        <v>4.782534</v>
+        <v>1.119017</v>
       </c>
       <c r="O5">
-        <v>0.002774255236666534</v>
+        <v>0.0005749804926272826</v>
       </c>
       <c r="P5">
-        <v>0.002776034676767823</v>
+        <v>0.0003834443489458648</v>
       </c>
       <c r="Q5">
-        <v>0.5678167113070001</v>
+        <v>0.8526221344544999</v>
       </c>
       <c r="R5">
-        <v>3.406900267842</v>
+        <v>3.410488537817999</v>
       </c>
       <c r="S5">
-        <v>2.943539325974335E-06</v>
+        <v>2.086191691888459E-06</v>
       </c>
       <c r="T5">
-        <v>1.964965223451259E-06</v>
+        <v>9.306820351077646E-07</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,7 +782,7 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.3561815</v>
+        <v>1.523877</v>
       </c>
       <c r="H6">
-        <v>0.7123630000000001</v>
+        <v>3.047754</v>
       </c>
       <c r="I6">
-        <v>0.001061019652074698</v>
+        <v>0.003628282556780205</v>
       </c>
       <c r="J6">
-        <v>0.0007078316563895001</v>
+        <v>0.002427163257631317</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,33 +809,33 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>335.3650816666666</v>
+        <v>585.2320353333333</v>
       </c>
       <c r="N6">
-        <v>1006.095245</v>
+        <v>1755.696106</v>
       </c>
       <c r="O6">
-        <v>0.583616342722613</v>
+        <v>0.6014153564730961</v>
       </c>
       <c r="P6">
-        <v>0.5839906811433476</v>
+        <v>0.6016099400741544</v>
       </c>
       <c r="Q6">
-        <v>119.4508378356558</v>
+        <v>891.821638307654</v>
       </c>
       <c r="R6">
-        <v>716.705027013935</v>
+        <v>5350.929829845923</v>
       </c>
       <c r="S6">
-        <v>0.0006192284089006546</v>
+        <v>0.002182104847271083</v>
       </c>
       <c r="T6">
-        <v>0.0004133670911497281</v>
+        <v>0.001460205541973766</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,55 +844,55 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.08654400000000001</v>
+        <v>1.523877</v>
       </c>
       <c r="H7">
-        <v>0.259632</v>
+        <v>3.047754</v>
       </c>
       <c r="I7">
-        <v>0.0002578036331734037</v>
+        <v>0.003628282556780205</v>
       </c>
       <c r="J7">
-        <v>0.0002579804799122339</v>
+        <v>0.002427163257631317</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.10502</v>
+        <v>114.1272113333333</v>
       </c>
       <c r="N7">
-        <v>2.21004</v>
+        <v>342.381634</v>
       </c>
       <c r="O7">
-        <v>0.001923002024630407</v>
+        <v>0.1172831515421446</v>
       </c>
       <c r="P7">
-        <v>0.00128282364057296</v>
+        <v>0.1173210976599564</v>
       </c>
       <c r="Q7">
-        <v>0.09563285088000002</v>
+        <v>173.915832425006</v>
       </c>
       <c r="R7">
-        <v>0.5737971052800002</v>
+        <v>1043.494994550036</v>
       </c>
       <c r="S7">
-        <v>4.9575690854953E-07</v>
+        <v>0.0004255364129445726</v>
       </c>
       <c r="T7">
-        <v>3.309434584377713E-07</v>
+        <v>0.0002847574575852215</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -915,46 +915,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.08654400000000001</v>
+        <v>0.086544</v>
       </c>
       <c r="H8">
         <v>0.259632</v>
       </c>
       <c r="I8">
-        <v>0.0002578036331734037</v>
+        <v>0.0002060573691931737</v>
       </c>
       <c r="J8">
-        <v>0.0002579804799122339</v>
+        <v>0.0002067651296349161</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.005387666666666666</v>
+        <v>0.384696</v>
       </c>
       <c r="N8">
-        <v>0.016163</v>
+        <v>0.7693920000000001</v>
       </c>
       <c r="O8">
-        <v>9.37584288794208E-06</v>
+        <v>0.0003953339325349752</v>
       </c>
       <c r="P8">
-        <v>9.381856664395554E-06</v>
+        <v>0.000263641226651746</v>
       </c>
       <c r="Q8">
-        <v>0.000466270224</v>
+        <v>0.033293130624</v>
       </c>
       <c r="R8">
-        <v>0.004196432016000001</v>
+        <v>0.199758783744</v>
       </c>
       <c r="S8">
-        <v>2.417126360574485E-09</v>
+        <v>8.146147009094863E-08</v>
       </c>
       <c r="T8">
-        <v>2.420335884748555E-09</v>
+        <v>5.451181240575655E-08</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -977,46 +977,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.08654400000000001</v>
+        <v>0.086544</v>
       </c>
       <c r="H9">
         <v>0.259632</v>
       </c>
       <c r="I9">
-        <v>0.0002578036331734037</v>
+        <v>0.0002060573691931737</v>
       </c>
       <c r="J9">
-        <v>0.0002579804799122339</v>
+        <v>0.0002067651296349161</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>236.563113</v>
+        <v>0.005387666666666666</v>
       </c>
       <c r="N9">
-        <v>709.689339</v>
+        <v>0.016163</v>
       </c>
       <c r="O9">
-        <v>0.4116770241732021</v>
+        <v>5.536650889328026E-06</v>
       </c>
       <c r="P9">
-        <v>0.4119410786826471</v>
+        <v>5.538442232791829E-06</v>
       </c>
       <c r="Q9">
-        <v>20.473118051472</v>
+        <v>0.0004662702239999999</v>
       </c>
       <c r="R9">
-        <v>184.258062463248</v>
+        <v>0.004196432016</v>
       </c>
       <c r="S9">
-        <v>0.0001061318325258666</v>
+        <v>1.140867716395979E-09</v>
       </c>
       <c r="T9">
-        <v>0.0001062727571741126</v>
+        <v>1.145156726238697E-09</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.08654400000000001</v>
+        <v>0.086544</v>
       </c>
       <c r="H10">
         <v>0.259632</v>
       </c>
       <c r="I10">
-        <v>0.0002578036331734037</v>
+        <v>0.0002060573691931737</v>
       </c>
       <c r="J10">
-        <v>0.0002579804799122339</v>
+        <v>0.0002067651296349161</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.594178</v>
+        <v>272.782435</v>
       </c>
       <c r="N10">
-        <v>4.782534</v>
+        <v>818.347305</v>
       </c>
       <c r="O10">
-        <v>0.002774255236666534</v>
+        <v>0.2803256409087078</v>
       </c>
       <c r="P10">
-        <v>0.002776034676767823</v>
+        <v>0.2804163382480588</v>
       </c>
       <c r="Q10">
-        <v>0.137966540832</v>
+        <v>23.60768305464</v>
       </c>
       <c r="R10">
-        <v>1.241698867488</v>
+        <v>212.46914749176</v>
       </c>
       <c r="S10">
-        <v>7.152130793629733E-07</v>
+        <v>5.776316408303865E-05</v>
       </c>
       <c r="T10">
-        <v>7.161627581655662E-07</v>
+        <v>5.798032052960837E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,7 +1092,7 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1101,51 +1101,51 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.08654400000000001</v>
+        <v>0.086544</v>
       </c>
       <c r="H11">
         <v>0.259632</v>
       </c>
       <c r="I11">
-        <v>0.0002578036331734037</v>
+        <v>0.0002060573691931737</v>
       </c>
       <c r="J11">
-        <v>0.0002579804799122339</v>
+        <v>0.0002067651296349161</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M11">
-        <v>335.3650816666666</v>
+        <v>0.5595085</v>
       </c>
       <c r="N11">
-        <v>1006.095245</v>
+        <v>1.119017</v>
       </c>
       <c r="O11">
-        <v>0.583616342722613</v>
+        <v>0.0005749804926272826</v>
       </c>
       <c r="P11">
-        <v>0.5839906811433476</v>
+        <v>0.0003834443489458648</v>
       </c>
       <c r="Q11">
-        <v>29.02383562776</v>
+        <v>0.04842210362399999</v>
       </c>
       <c r="R11">
-        <v>261.21452064984</v>
+        <v>0.290532621744</v>
       </c>
       <c r="S11">
-        <v>0.0001504584135332639</v>
+        <v>1.184789676481729E-07</v>
       </c>
       <c r="T11">
-        <v>0.0001506581961856332</v>
+        <v>7.928292051756774E-08</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,7 +1154,7 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,51 +1163,51 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>174.5669863333333</v>
+        <v>0.086544</v>
       </c>
       <c r="H12">
-        <v>523.700959</v>
+        <v>0.259632</v>
       </c>
       <c r="I12">
-        <v>0.5200129796273021</v>
+        <v>0.0002060573691931737</v>
       </c>
       <c r="J12">
-        <v>0.5203696953122771</v>
+        <v>0.0002067651296349161</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.10502</v>
+        <v>585.2320353333333</v>
       </c>
       <c r="N12">
-        <v>2.21004</v>
+        <v>1755.696106</v>
       </c>
       <c r="O12">
-        <v>0.001923002024630407</v>
+        <v>0.6014153564730961</v>
       </c>
       <c r="P12">
-        <v>0.00128282364057296</v>
+        <v>0.6016099400741544</v>
       </c>
       <c r="Q12">
-        <v>192.90001123806</v>
+        <v>50.648321265888</v>
       </c>
       <c r="R12">
-        <v>1157.40006742836</v>
+        <v>455.8348913929919</v>
       </c>
       <c r="S12">
-        <v>0.0009999860126573927</v>
+        <v>0.000123926066147221</v>
       </c>
       <c r="T12">
-        <v>0.0006675425469843372</v>
+        <v>0.0001243919572490866</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1216,7 +1216,7 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1225,46 +1225,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>174.5669863333333</v>
+        <v>0.086544</v>
       </c>
       <c r="H13">
-        <v>523.700959</v>
+        <v>0.259632</v>
       </c>
       <c r="I13">
-        <v>0.5200129796273021</v>
+        <v>0.0002060573691931737</v>
       </c>
       <c r="J13">
-        <v>0.5203696953122771</v>
+        <v>0.0002067651296349161</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.005387666666666666</v>
+        <v>114.1272113333333</v>
       </c>
       <c r="N13">
-        <v>0.016163</v>
+        <v>342.381634</v>
       </c>
       <c r="O13">
-        <v>9.37584288794208E-06</v>
+        <v>0.1172831515421446</v>
       </c>
       <c r="P13">
-        <v>9.381856664395554E-06</v>
+        <v>0.1173210976599564</v>
       </c>
       <c r="Q13">
-        <v>0.9405087333685556</v>
+        <v>9.877025377632</v>
       </c>
       <c r="R13">
-        <v>8.464578600317001</v>
+        <v>88.893228398688</v>
       </c>
       <c r="S13">
-        <v>4.87555999667621E-06</v>
+        <v>2.416705765745863E-05</v>
       </c>
       <c r="T13">
-        <v>4.882033893914971E-06</v>
+        <v>2.425791196657153E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,7 +1278,7 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1287,46 +1287,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>174.5669863333333</v>
+        <v>203.695282</v>
       </c>
       <c r="H14">
-        <v>523.700959</v>
+        <v>611.0858459999999</v>
       </c>
       <c r="I14">
-        <v>0.5200129796273021</v>
+        <v>0.4849892993850716</v>
       </c>
       <c r="J14">
-        <v>0.5203696953122771</v>
+        <v>0.4866551278973792</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>236.563113</v>
+        <v>0.384696</v>
       </c>
       <c r="N14">
-        <v>709.689339</v>
+        <v>0.7693920000000001</v>
       </c>
       <c r="O14">
-        <v>0.4116770241732021</v>
+        <v>0.0003953339325349752</v>
       </c>
       <c r="P14">
-        <v>0.4119410786826471</v>
+        <v>0.000263641226651746</v>
       </c>
       <c r="Q14">
-        <v>41296.10971404179</v>
+        <v>78.360760204272</v>
       </c>
       <c r="R14">
-        <v>371664.9874263761</v>
+        <v>470.164561225632</v>
       </c>
       <c r="S14">
-        <v>0.2140773959844077</v>
+        <v>0.0001917327269632828</v>
       </c>
       <c r="T14">
-        <v>0.2143616536006998</v>
+        <v>0.0001283023548752274</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,7 +1340,7 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1349,46 +1349,46 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>174.5669863333333</v>
+        <v>203.695282</v>
       </c>
       <c r="H15">
-        <v>523.700959</v>
+        <v>611.0858459999999</v>
       </c>
       <c r="I15">
-        <v>0.5200129796273021</v>
+        <v>0.4849892993850716</v>
       </c>
       <c r="J15">
-        <v>0.5203696953122771</v>
+        <v>0.4866551278973792</v>
       </c>
       <c r="K15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M15">
-        <v>1.594178</v>
+        <v>0.005387666666666666</v>
       </c>
       <c r="N15">
-        <v>4.782534</v>
+        <v>0.016163</v>
       </c>
       <c r="O15">
-        <v>0.002774255236666534</v>
+        <v>5.536650889328026E-06</v>
       </c>
       <c r="P15">
-        <v>0.002776034676767823</v>
+        <v>5.538442232791829E-06</v>
       </c>
       <c r="Q15">
-        <v>278.2908491389007</v>
+        <v>1.097442280988667</v>
       </c>
       <c r="R15">
-        <v>2504.617642250106</v>
+        <v>9.876980528897999</v>
       </c>
       <c r="S15">
-        <v>0.00144264873186561</v>
+        <v>2.685216435754933E-06</v>
       </c>
       <c r="T15">
-        <v>0.001444564318925988</v>
+        <v>2.695311313151554E-06</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,7 +1402,7 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>174.5669863333333</v>
+        <v>203.695282</v>
       </c>
       <c r="H16">
-        <v>523.700959</v>
+        <v>611.0858459999999</v>
       </c>
       <c r="I16">
-        <v>0.5200129796273021</v>
+        <v>0.4849892993850716</v>
       </c>
       <c r="J16">
-        <v>0.5203696953122771</v>
+        <v>0.4866551278973792</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,95 +1429,95 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>335.3650816666666</v>
+        <v>272.782435</v>
       </c>
       <c r="N16">
-        <v>1006.095245</v>
+        <v>818.347305</v>
       </c>
       <c r="O16">
-        <v>0.583616342722613</v>
+        <v>0.2803256409087078</v>
       </c>
       <c r="P16">
-        <v>0.5839906811433476</v>
+        <v>0.2804163382480588</v>
       </c>
       <c r="Q16">
-        <v>58543.67162798221</v>
+        <v>55564.49502197167</v>
       </c>
       <c r="R16">
-        <v>526893.04465184</v>
+        <v>500080.455197745</v>
       </c>
       <c r="S16">
-        <v>0.3034880733383747</v>
+        <v>0.1359549361839854</v>
       </c>
       <c r="T16">
-        <v>0.3038910528117729</v>
+        <v>0.1364660489546238</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.3341845</v>
+        <v>203.695282</v>
       </c>
       <c r="H17">
-        <v>0.668369</v>
+        <v>611.0858459999999</v>
       </c>
       <c r="I17">
-        <v>0.0009954933704270348</v>
+        <v>0.4849892993850716</v>
       </c>
       <c r="J17">
-        <v>0.0006641175023820632</v>
+        <v>0.4866551278973792</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M17">
-        <v>1.10502</v>
+        <v>0.5595085</v>
       </c>
       <c r="N17">
-        <v>2.21004</v>
+        <v>1.119017</v>
       </c>
       <c r="O17">
-        <v>0.001923002024630407</v>
+        <v>0.0005749804926272826</v>
       </c>
       <c r="P17">
-        <v>0.00128282364057296</v>
+        <v>0.0003834443489458648</v>
       </c>
       <c r="Q17">
-        <v>0.3692805561900001</v>
+        <v>113.969241688897</v>
       </c>
       <c r="R17">
-        <v>1.47712222476</v>
+        <v>683.8154501333819</v>
       </c>
       <c r="S17">
-        <v>1.914335766837336E-06</v>
+        <v>0.0002788593862793891</v>
       </c>
       <c r="T17">
-        <v>8.519456321739797E-07</v>
+        <v>0.0001866051586777771</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,60 +1526,60 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.3341845</v>
+        <v>203.695282</v>
       </c>
       <c r="H18">
-        <v>0.668369</v>
+        <v>611.0858459999999</v>
       </c>
       <c r="I18">
-        <v>0.0009954933704270348</v>
+        <v>0.4849892993850716</v>
       </c>
       <c r="J18">
-        <v>0.0006641175023820632</v>
+        <v>0.4866551278973792</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M18">
-        <v>0.005387666666666666</v>
+        <v>585.2320353333333</v>
       </c>
       <c r="N18">
-        <v>0.016163</v>
+        <v>1755.696106</v>
       </c>
       <c r="O18">
-        <v>9.37584288794208E-06</v>
+        <v>0.6014153564730961</v>
       </c>
       <c r="P18">
-        <v>9.381856664395554E-06</v>
+        <v>0.6016099400741544</v>
       </c>
       <c r="Q18">
-        <v>0.001800474691166666</v>
+        <v>119209.0044726573</v>
       </c>
       <c r="R18">
-        <v>0.010802848147</v>
+        <v>1072881.040253916</v>
       </c>
       <c r="S18">
-        <v>9.333589437111805E-09</v>
+        <v>0.29168001237531</v>
       </c>
       <c r="T18">
-        <v>6.230655215664891E-09</v>
+        <v>0.2927765623311223</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,25 +1588,25 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.3341845</v>
+        <v>203.695282</v>
       </c>
       <c r="H19">
-        <v>0.668369</v>
+        <v>611.0858459999999</v>
       </c>
       <c r="I19">
-        <v>0.0009954933704270348</v>
+        <v>0.4849892993850716</v>
       </c>
       <c r="J19">
-        <v>0.0006641175023820632</v>
+        <v>0.4866551278973792</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>236.563113</v>
+        <v>114.1272113333333</v>
       </c>
       <c r="N19">
-        <v>709.689339</v>
+        <v>342.381634</v>
       </c>
       <c r="O19">
-        <v>0.4116770241732021</v>
+        <v>0.1172831515421446</v>
       </c>
       <c r="P19">
-        <v>0.4119410786826471</v>
+        <v>0.1173210976599564</v>
       </c>
       <c r="Q19">
-        <v>79.0557256363485</v>
+        <v>23247.17449641693</v>
       </c>
       <c r="R19">
-        <v>474.334353818091</v>
+        <v>209224.5704677523</v>
       </c>
       <c r="S19">
-        <v>0.0004098217483215529</v>
+        <v>0.05688107349609788</v>
       </c>
       <c r="T19">
-        <v>0.0002735772803032926</v>
+        <v>0.05709491378676698</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,7 +1650,7 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E20">
         <v>2</v>
@@ -1659,46 +1659,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.3341845</v>
+        <v>2.789119</v>
       </c>
       <c r="H20">
-        <v>0.668369</v>
+        <v>5.578238</v>
       </c>
       <c r="I20">
-        <v>0.0009954933704270348</v>
+        <v>0.006640766818112123</v>
       </c>
       <c r="J20">
-        <v>0.0006641175023820632</v>
+        <v>0.004442384233085349</v>
       </c>
       <c r="K20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.594178</v>
+        <v>0.384696</v>
       </c>
       <c r="N20">
-        <v>4.782534</v>
+        <v>0.7693920000000001</v>
       </c>
       <c r="O20">
-        <v>0.002774255236666534</v>
+        <v>0.0003953339325349752</v>
       </c>
       <c r="P20">
-        <v>0.002776034676767823</v>
+        <v>0.000263641226651746</v>
       </c>
       <c r="Q20">
-        <v>0.5327495778410001</v>
+        <v>1.072962922824</v>
       </c>
       <c r="R20">
-        <v>3.196497467046</v>
+        <v>4.291851691296</v>
       </c>
       <c r="S20">
-        <v>2.761752695974019E-06</v>
+        <v>2.62532046125204E-06</v>
       </c>
       <c r="T20">
-        <v>1.843613216061045E-06</v>
+        <v>1.171195628468997E-06</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,7 +1712,7 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E21">
         <v>2</v>
@@ -1721,51 +1721,51 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.3341845</v>
+        <v>2.789119</v>
       </c>
       <c r="H21">
-        <v>0.668369</v>
+        <v>5.578238</v>
       </c>
       <c r="I21">
-        <v>0.0009954933704270348</v>
+        <v>0.006640766818112123</v>
       </c>
       <c r="J21">
-        <v>0.0006641175023820632</v>
+        <v>0.004442384233085349</v>
       </c>
       <c r="K21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M21">
-        <v>335.3650816666666</v>
+        <v>0.005387666666666666</v>
       </c>
       <c r="N21">
-        <v>1006.095245</v>
+        <v>0.016163</v>
       </c>
       <c r="O21">
-        <v>0.583616342722613</v>
+        <v>5.536650889328026E-06</v>
       </c>
       <c r="P21">
-        <v>0.5839906811433476</v>
+        <v>5.538442232791829E-06</v>
       </c>
       <c r="Q21">
-        <v>112.0738121342342</v>
+        <v>0.01502684346566666</v>
       </c>
       <c r="R21">
-        <v>672.4428728054049</v>
+        <v>0.09016106079399999</v>
       </c>
       <c r="S21">
-        <v>0.0005809862000532334</v>
+        <v>3.676760750932053E-08</v>
       </c>
       <c r="T21">
-        <v>0.0003878384325753199</v>
+        <v>2.460388845080843E-08</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,60 +1774,60 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E22">
         <v>2</v>
       </c>
       <c r="F22">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>0.8705036666666667</v>
+        <v>2.789119</v>
       </c>
       <c r="H22">
-        <v>2.611511</v>
+        <v>5.578238</v>
       </c>
       <c r="I22">
-        <v>0.002593120354472131</v>
+        <v>0.006640766818112123</v>
       </c>
       <c r="J22">
-        <v>0.002594899169116587</v>
+        <v>0.004442384233085349</v>
       </c>
       <c r="K22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>1.10502</v>
+        <v>272.782435</v>
       </c>
       <c r="N22">
-        <v>2.21004</v>
+        <v>818.347305</v>
       </c>
       <c r="O22">
-        <v>0.001923002024630407</v>
+        <v>0.2803256409087078</v>
       </c>
       <c r="P22">
-        <v>0.00128282364057296</v>
+        <v>0.2804163382480588</v>
       </c>
       <c r="Q22">
-        <v>0.9619239617400001</v>
+        <v>760.822672324765</v>
       </c>
       <c r="R22">
-        <v>5.771543770440001</v>
+        <v>4564.93603394859</v>
       </c>
       <c r="S22">
-        <v>4.986575691760228E-06</v>
+        <v>0.001861577214412561</v>
       </c>
       <c r="T22">
-        <v>3.32879799904589E-06</v>
+        <v>0.001245717119732705</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,87 +1836,87 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E23">
         <v>2</v>
       </c>
       <c r="F23">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>0.8705036666666667</v>
+        <v>2.789119</v>
       </c>
       <c r="H23">
-        <v>2.611511</v>
+        <v>5.578238</v>
       </c>
       <c r="I23">
-        <v>0.002593120354472131</v>
+        <v>0.006640766818112123</v>
       </c>
       <c r="J23">
-        <v>0.002594899169116587</v>
+        <v>0.004442384233085349</v>
       </c>
       <c r="K23">
         <v>1</v>
       </c>
       <c r="L23">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M23">
-        <v>0.005387666666666666</v>
+        <v>0.5595085</v>
       </c>
       <c r="N23">
-        <v>0.016163</v>
+        <v>1.119017</v>
       </c>
       <c r="O23">
-        <v>9.37584288794208E-06</v>
+        <v>0.0005749804926272826</v>
       </c>
       <c r="P23">
-        <v>9.381856664395554E-06</v>
+        <v>0.0003834443489458648</v>
       </c>
       <c r="Q23">
-        <v>0.004689983588111111</v>
+        <v>1.5605357880115</v>
       </c>
       <c r="R23">
-        <v>0.04220985229300001</v>
+        <v>6.242143152045999</v>
       </c>
       <c r="S23">
-        <v>2.431268903305538E-08</v>
+        <v>3.818311376501021E-06</v>
       </c>
       <c r="T23">
-        <v>2.434497206321094E-08</v>
+        <v>1.703407130022786E-06</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
       </c>
       <c r="E24">
         <v>2</v>
       </c>
       <c r="F24">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>0.8705036666666667</v>
+        <v>2.789119</v>
       </c>
       <c r="H24">
-        <v>2.611511</v>
+        <v>5.578238</v>
       </c>
       <c r="I24">
-        <v>0.002593120354472131</v>
+        <v>0.006640766818112123</v>
       </c>
       <c r="J24">
-        <v>0.002594899169116587</v>
+        <v>0.004442384233085349</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,33 +1925,33 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>236.563113</v>
+        <v>585.2320353333333</v>
       </c>
       <c r="N24">
-        <v>709.689339</v>
+        <v>1755.696106</v>
       </c>
       <c r="O24">
-        <v>0.4116770241732021</v>
+        <v>0.6014153564730961</v>
       </c>
       <c r="P24">
-        <v>0.4119410786826471</v>
+        <v>0.6016099400741544</v>
       </c>
       <c r="Q24">
-        <v>205.929057264581</v>
+        <v>1632.281789156871</v>
       </c>
       <c r="R24">
-        <v>1853.361515381229</v>
+        <v>9793.690734941227</v>
       </c>
       <c r="S24">
-        <v>0.001067528070852046</v>
+        <v>0.00399385914316961</v>
       </c>
       <c r="T24">
-        <v>0.001068945562798592</v>
+        <v>0.002672582512252844</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1960,25 +1960,25 @@
         <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E25">
         <v>2</v>
       </c>
       <c r="F25">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>0.8705036666666667</v>
+        <v>2.789119</v>
       </c>
       <c r="H25">
-        <v>2.611511</v>
+        <v>5.578238</v>
       </c>
       <c r="I25">
-        <v>0.002593120354472131</v>
+        <v>0.006640766818112123</v>
       </c>
       <c r="J25">
-        <v>0.002594899169116587</v>
+        <v>0.004442384233085349</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>1.594178</v>
+        <v>114.1272113333333</v>
       </c>
       <c r="N25">
-        <v>4.782534</v>
+        <v>342.381634</v>
       </c>
       <c r="O25">
-        <v>0.002774255236666534</v>
+        <v>0.1172831515421446</v>
       </c>
       <c r="P25">
-        <v>0.002776034676767823</v>
+        <v>0.1173210976599564</v>
       </c>
       <c r="Q25">
-        <v>1.387737794319333</v>
+        <v>318.3143735468153</v>
       </c>
       <c r="R25">
-        <v>12.489640148874</v>
+        <v>1909.886241280892</v>
       </c>
       <c r="S25">
-        <v>7.193977722700889E-06</v>
+        <v>0.0007788500610846895</v>
       </c>
       <c r="T25">
-        <v>7.203530076183659E-06</v>
+        <v>0.0005211853944528565</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,60 +2022,60 @@
         <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>57.96932233333333</v>
+      </c>
+      <c r="H26">
+        <v>173.907967</v>
+      </c>
+      <c r="I26">
+        <v>0.1380223476372453</v>
+      </c>
+      <c r="J26">
+        <v>0.1384964231731825</v>
+      </c>
+      <c r="K26">
         <v>2</v>
       </c>
-      <c r="F26">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G26">
-        <v>0.8705036666666667</v>
-      </c>
-      <c r="H26">
-        <v>2.611511</v>
-      </c>
-      <c r="I26">
-        <v>0.002593120354472131</v>
-      </c>
-      <c r="J26">
-        <v>0.002594899169116587</v>
-      </c>
-      <c r="K26">
-        <v>3</v>
-      </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>335.3650816666666</v>
+        <v>0.384696</v>
       </c>
       <c r="N26">
-        <v>1006.095245</v>
+        <v>0.7693920000000001</v>
       </c>
       <c r="O26">
-        <v>0.583616342722613</v>
+        <v>0.0003953339325349752</v>
       </c>
       <c r="P26">
-        <v>0.5839906811433476</v>
+        <v>0.000263641226651746</v>
       </c>
       <c r="Q26">
-        <v>291.9365332627994</v>
+        <v>22.300566424344</v>
       </c>
       <c r="R26">
-        <v>2627.428799365195</v>
+        <v>133.803398546064</v>
       </c>
       <c r="S26">
-        <v>0.001513387417516591</v>
+        <v>5.456491746914164E-05</v>
       </c>
       <c r="T26">
-        <v>0.001515396933270703</v>
+        <v>3.651336689225713E-05</v>
       </c>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
@@ -2084,7 +2084,7 @@
         <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E27">
         <v>3</v>
@@ -2093,51 +2093,51 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>159.4829636666667</v>
+        <v>57.96932233333333</v>
       </c>
       <c r="H27">
-        <v>478.448891</v>
+        <v>173.907967</v>
       </c>
       <c r="I27">
-        <v>0.4750795833625507</v>
+        <v>0.1380223476372453</v>
       </c>
       <c r="J27">
-        <v>0.4754054758799227</v>
+        <v>0.1384964231731825</v>
       </c>
       <c r="K27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L27">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M27">
-        <v>1.10502</v>
+        <v>0.005387666666666666</v>
       </c>
       <c r="N27">
-        <v>2.21004</v>
+        <v>0.016163</v>
       </c>
       <c r="O27">
-        <v>0.001923002024630407</v>
+        <v>5.536650889328026E-06</v>
       </c>
       <c r="P27">
-        <v>0.00128282364057296</v>
+        <v>5.538442232791829E-06</v>
       </c>
       <c r="Q27">
-        <v>176.23186451094</v>
+        <v>0.3123193856245555</v>
       </c>
       <c r="R27">
-        <v>1057.39118706564</v>
+        <v>2.810874470621</v>
       </c>
       <c r="S27">
-        <v>0.0009135790006667555</v>
+        <v>7.641815537928963E-07</v>
       </c>
       <c r="T27">
-        <v>0.0006098613833166029</v>
+        <v>7.670544391929627E-07</v>
       </c>
     </row>
     <row r="28" spans="1:20">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
@@ -2146,7 +2146,7 @@
         <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E28">
         <v>3</v>
@@ -2155,51 +2155,51 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>159.4829636666667</v>
+        <v>57.96932233333333</v>
       </c>
       <c r="H28">
-        <v>478.448891</v>
+        <v>173.907967</v>
       </c>
       <c r="I28">
-        <v>0.4750795833625507</v>
+        <v>0.1380223476372453</v>
       </c>
       <c r="J28">
-        <v>0.4754054758799227</v>
+        <v>0.1384964231731825</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M28">
-        <v>0.005387666666666666</v>
+        <v>272.782435</v>
       </c>
       <c r="N28">
-        <v>0.016163</v>
+        <v>818.347305</v>
       </c>
       <c r="O28">
-        <v>9.37584288794208E-06</v>
+        <v>0.2803256409087078</v>
       </c>
       <c r="P28">
-        <v>9.381856664395554E-06</v>
+        <v>0.2804163382480588</v>
       </c>
       <c r="Q28">
-        <v>0.8592410472481111</v>
+        <v>15813.01290138655</v>
       </c>
       <c r="R28">
-        <v>7.733169425233</v>
+        <v>142317.1161124789</v>
       </c>
       <c r="S28">
-        <v>4.454271532876258E-06</v>
+        <v>0.03869120306113526</v>
       </c>
       <c r="T28">
-        <v>4.460186032174193E-06</v>
+        <v>0.03883665984667743</v>
       </c>
     </row>
     <row r="29" spans="1:20">
       <c r="A29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B29" t="s">
         <v>26</v>
@@ -2208,7 +2208,7 @@
         <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E29">
         <v>3</v>
@@ -2217,51 +2217,51 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>159.4829636666667</v>
+        <v>57.96932233333333</v>
       </c>
       <c r="H29">
-        <v>478.448891</v>
+        <v>173.907967</v>
       </c>
       <c r="I29">
-        <v>0.4750795833625507</v>
+        <v>0.1380223476372453</v>
       </c>
       <c r="J29">
-        <v>0.4754054758799227</v>
+        <v>0.1384964231731825</v>
       </c>
       <c r="K29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L29">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M29">
-        <v>236.563113</v>
+        <v>0.5595085</v>
       </c>
       <c r="N29">
-        <v>709.689339</v>
+        <v>1.119017</v>
       </c>
       <c r="O29">
-        <v>0.4116770241732021</v>
+        <v>0.0005749804926272826</v>
       </c>
       <c r="P29">
-        <v>0.4119410786826471</v>
+        <v>0.0003834443489458648</v>
       </c>
       <c r="Q29">
-        <v>37727.78635545257</v>
+        <v>32.43432858473983</v>
       </c>
       <c r="R29">
-        <v>339550.077199073</v>
+        <v>194.605971508439</v>
       </c>
       <c r="S29">
-        <v>0.1955793491241396</v>
+        <v>7.936015743803738E-05</v>
       </c>
       <c r="T29">
-        <v>0.1958390445456125</v>
+        <v>5.310567081497194E-05</v>
       </c>
     </row>
     <row r="30" spans="1:20">
       <c r="A30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B30" t="s">
         <v>26</v>
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>159.4829636666667</v>
+        <v>57.96932233333333</v>
       </c>
       <c r="H30">
-        <v>478.448891</v>
+        <v>173.907967</v>
       </c>
       <c r="I30">
-        <v>0.4750795833625507</v>
+        <v>0.1380223476372453</v>
       </c>
       <c r="J30">
-        <v>0.4754054758799227</v>
+        <v>0.1384964231731825</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,33 +2297,33 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>1.594178</v>
+        <v>585.2320353333333</v>
       </c>
       <c r="N30">
-        <v>4.782534</v>
+        <v>1755.696106</v>
       </c>
       <c r="O30">
-        <v>0.002774255236666534</v>
+        <v>0.6014153564730961</v>
       </c>
       <c r="P30">
-        <v>0.002776034676767823</v>
+        <v>0.6016099400741544</v>
       </c>
       <c r="Q30">
-        <v>254.2442320521994</v>
+        <v>33925.50449603072</v>
       </c>
       <c r="R30">
-        <v>2288.198088469794</v>
+        <v>305329.5404642764</v>
       </c>
       <c r="S30">
-        <v>0.001317992021976911</v>
+        <v>0.08300875940550749</v>
       </c>
       <c r="T30">
-        <v>0.001319742086567974</v>
+        <v>0.08332082484570304</v>
       </c>
     </row>
     <row r="31" spans="1:20">
       <c r="A31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B31" t="s">
         <v>26</v>
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>159.4829636666667</v>
+        <v>57.96932233333333</v>
       </c>
       <c r="H31">
-        <v>478.448891</v>
+        <v>173.907967</v>
       </c>
       <c r="I31">
-        <v>0.4750795833625507</v>
+        <v>0.1380223476372453</v>
       </c>
       <c r="J31">
-        <v>0.4754054758799227</v>
+        <v>0.1384964231731825</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,400 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>335.3650816666666</v>
+        <v>114.1272113333333</v>
       </c>
       <c r="N31">
-        <v>1006.095245</v>
+        <v>342.381634</v>
       </c>
       <c r="O31">
-        <v>0.583616342722613</v>
+        <v>0.1172831515421446</v>
       </c>
       <c r="P31">
-        <v>0.5839906811433476</v>
+        <v>0.1173210976599564</v>
       </c>
       <c r="Q31">
-        <v>53485.0171345137</v>
+        <v>6615.877100786453</v>
       </c>
       <c r="R31">
-        <v>481365.1542106233</v>
+        <v>59542.89390707808</v>
       </c>
       <c r="S31">
-        <v>0.2772642089442346</v>
+        <v>0.0161876959141416</v>
       </c>
       <c r="T31">
-        <v>0.2776323676783933</v>
+        <v>0.01624855238865558</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>153.9353943333333</v>
+      </c>
+      <c r="H32">
+        <v>461.806183</v>
+      </c>
+      <c r="I32">
+        <v>0.3665132462335974</v>
+      </c>
+      <c r="J32">
+        <v>0.3677721363090867</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>0.384696</v>
+      </c>
+      <c r="N32">
+        <v>0.7693920000000001</v>
+      </c>
+      <c r="O32">
+        <v>0.0003953339325349752</v>
+      </c>
+      <c r="P32">
+        <v>0.000263641226651746</v>
+      </c>
+      <c r="Q32">
+        <v>59.21833045845601</v>
+      </c>
+      <c r="R32">
+        <v>355.309982750736</v>
+      </c>
+      <c r="S32">
+        <v>0.0001448951229596878</v>
+      </c>
+      <c r="T32">
+        <v>9.695989714486074E-05</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>153.9353943333333</v>
+      </c>
+      <c r="H33">
+        <v>461.806183</v>
+      </c>
+      <c r="I33">
+        <v>0.3665132462335974</v>
+      </c>
+      <c r="J33">
+        <v>0.3677721363090867</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="L33">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M33">
+        <v>0.005387666666666666</v>
+      </c>
+      <c r="N33">
+        <v>0.016163</v>
+      </c>
+      <c r="O33">
+        <v>5.536650889328026E-06</v>
+      </c>
+      <c r="P33">
+        <v>5.538442232791829E-06</v>
+      </c>
+      <c r="Q33">
+        <v>0.8293525928698888</v>
+      </c>
+      <c r="R33">
+        <v>7.464173335829</v>
+      </c>
+      <c r="S33">
+        <v>2.029255890709749E-06</v>
+      </c>
+      <c r="T33">
+        <v>2.036884731778319E-06</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>153.9353943333333</v>
+      </c>
+      <c r="H34">
+        <v>461.806183</v>
+      </c>
+      <c r="I34">
+        <v>0.3665132462335974</v>
+      </c>
+      <c r="J34">
+        <v>0.3677721363090867</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>272.782435</v>
+      </c>
+      <c r="N34">
+        <v>818.347305</v>
+      </c>
+      <c r="O34">
+        <v>0.2803256409087078</v>
+      </c>
+      <c r="P34">
+        <v>0.2804163382480588</v>
+      </c>
+      <c r="Q34">
+        <v>41990.87169893187</v>
+      </c>
+      <c r="R34">
+        <v>377917.8452903868</v>
+      </c>
+      <c r="S34">
+        <v>0.1027430606519642</v>
+      </c>
+      <c r="T34">
+        <v>0.10312931577346</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>153.9353943333333</v>
+      </c>
+      <c r="H35">
+        <v>461.806183</v>
+      </c>
+      <c r="I35">
+        <v>0.3665132462335974</v>
+      </c>
+      <c r="J35">
+        <v>0.3677721363090867</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="L35">
+        <v>0.5</v>
+      </c>
+      <c r="M35">
+        <v>0.5595085</v>
+      </c>
+      <c r="N35">
+        <v>1.119017</v>
+      </c>
+      <c r="O35">
+        <v>0.0005749804926272826</v>
+      </c>
+      <c r="P35">
+        <v>0.0003834443489458648</v>
+      </c>
+      <c r="Q35">
+        <v>86.12816158035183</v>
+      </c>
+      <c r="R35">
+        <v>516.7689694821109</v>
+      </c>
+      <c r="S35">
+        <v>0.0002107379668738184</v>
+      </c>
+      <c r="T35">
+        <v>0.0001410201473674676</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>153.9353943333333</v>
+      </c>
+      <c r="H36">
+        <v>461.806183</v>
+      </c>
+      <c r="I36">
+        <v>0.3665132462335974</v>
+      </c>
+      <c r="J36">
+        <v>0.3677721363090867</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>585.2320353333333</v>
+      </c>
+      <c r="N36">
+        <v>1755.696106</v>
+      </c>
+      <c r="O36">
+        <v>0.6014153564730961</v>
+      </c>
+      <c r="P36">
+        <v>0.6016099400741544</v>
+      </c>
+      <c r="Q36">
+        <v>90087.92413553593</v>
+      </c>
+      <c r="R36">
+        <v>810791.3172198232</v>
+      </c>
+      <c r="S36">
+        <v>0.2204266946356906</v>
+      </c>
+      <c r="T36">
+        <v>0.2212553728858534</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>153.9353943333333</v>
+      </c>
+      <c r="H37">
+        <v>461.806183</v>
+      </c>
+      <c r="I37">
+        <v>0.3665132462335974</v>
+      </c>
+      <c r="J37">
+        <v>0.3677721363090867</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>114.1272113333333</v>
+      </c>
+      <c r="N37">
+        <v>342.381634</v>
+      </c>
+      <c r="O37">
+        <v>0.1172831515421446</v>
+      </c>
+      <c r="P37">
+        <v>0.1173210976599564</v>
+      </c>
+      <c r="Q37">
+        <v>17568.21728076033</v>
+      </c>
+      <c r="R37">
+        <v>158113.955526843</v>
+      </c>
+      <c r="S37">
+        <v>0.04298582860021836</v>
+      </c>
+      <c r="T37">
+        <v>0.04314743072052914</v>
       </c>
     </row>
   </sheetData>
